--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1422.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1422.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.667607738912876</v>
+        <v>0.9747682213783264</v>
       </c>
       <c r="B1">
-        <v>2.023067498288999</v>
+        <v>1.022755980491638</v>
       </c>
       <c r="C1">
-        <v>2.153705982771903</v>
+        <v>6.494430541992188</v>
       </c>
       <c r="D1">
-        <v>2.557048452916787</v>
+        <v>1.968039035797119</v>
       </c>
       <c r="E1">
-        <v>3.29462202552585</v>
+        <v>1.106608867645264</v>
       </c>
     </row>
   </sheetData>
